--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed1/result_data_KNN.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.414</v>
+        <v>-20.95</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.928</v>
+        <v>-21.191</v>
       </c>
       <c r="B7" t="n">
-        <v>5.412000000000001</v>
+        <v>6.765000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.296</v>
+        <v>-21.623</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.87</v>
+        <v>6.017</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.558</v>
+        <v>5.67</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.638</v>
+        <v>5.359</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.706</v>
+        <v>-21.539</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.168</v>
+        <v>-21.795</v>
       </c>
       <c r="B20" t="n">
-        <v>5.273999999999999</v>
+        <v>5.508999999999999</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.518</v>
+        <v>-21.049</v>
       </c>
       <c r="B21" t="n">
-        <v>8.826000000000002</v>
+        <v>7.691999999999998</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>6.595999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.384</v>
+        <v>7.359999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.728</v>
+        <v>-21.778</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.806</v>
+        <v>-21.675</v>
       </c>
       <c r="B29" t="n">
-        <v>5.263999999999999</v>
+        <v>5.816999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.574</v>
+        <v>-21.795</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.524</v>
+        <v>-21.705</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.424000000000001</v>
+        <v>8.059000000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.128</v>
+        <v>-20.605</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.441999999999998</v>
+        <v>7.047</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.728</v>
+        <v>5.935</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.482000000000001</v>
+        <v>5.374000000000001</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.382</v>
+        <v>5.25</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-20.362</v>
+        <v>-20.832</v>
       </c>
       <c r="B46" t="n">
-        <v>7.334000000000001</v>
+        <v>7.604000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.095999999999999</v>
+        <v>5.435</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-20.998</v>
+        <v>-20.952</v>
       </c>
       <c r="B51" t="n">
-        <v>7.159999999999999</v>
+        <v>7.930000000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.69</v>
+        <v>-21.493</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.052</v>
+        <v>-21.849</v>
       </c>
       <c r="B57" t="n">
-        <v>6.004</v>
+        <v>6.078</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.47</v>
+        <v>-22.395</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.394</v>
+        <v>-21.963</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.574</v>
+        <v>5.306</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.424</v>
+        <v>-21.504</v>
       </c>
       <c r="B66" t="n">
-        <v>6.074</v>
+        <v>5.473</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.414</v>
+        <v>5.8</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.976</v>
+        <v>-20.618</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.016</v>
+        <v>-21.043</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.314</v>
+        <v>-21.678</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.232</v>
+        <v>5.681</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>6.42</v>
+        <v>5.781000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.26</v>
+        <v>4.447000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.226</v>
+        <v>-21.511</v>
       </c>
       <c r="B92" t="n">
-        <v>6.174</v>
+        <v>5.527</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>7.040000000000001</v>
+        <v>6.296000000000001</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.282</v>
+        <v>-21.481</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
